--- a/zima_teploty.xlsx
+++ b/zima_teploty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BK\IMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA49F8-3945-433D-B17B-38A7D069BC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0521199C-2A59-434B-B8C6-9213EC10E1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>počáteční rok</t>
   </si>
@@ -356,6 +356,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prubeh</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> intenzit zimniho obdobi za jednotlive roky</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -387,7 +417,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2225558413679513E-2"/>
+          <c:y val="0.16466847187408051"/>
+          <c:w val="0.92115795658530264"/>
+          <c:h val="0.7805789190239808"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -397,7 +437,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -748,6 +788,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1311,16 +1352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>551089</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>102054</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4438</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>69396</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177249</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1346,6 +1387,111 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05218</cdr:x>
+      <cdr:y>0.65072</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97471</cdr:x>
+      <cdr:y>0.65369</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EE845A-7855-43DB-99C5-C2C81204BE09}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="451106" y="1811229"/>
+          <a:ext cx="7976152" cy="8282"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05122</cdr:x>
+      <cdr:y>0.4573</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97375</cdr:x>
+      <cdr:y>0.4573</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71CE220-C425-423E-819F-79DE9B960784}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="442823" y="1272859"/>
+          <a:ext cx="7976152" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1647,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2469,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
